--- a/doc/투표구 관할단지.xlsx
+++ b/doc/투표구 관할단지.xlsx
@@ -1677,7 +1677,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>동백1동제1투</t>
+          <t>동백동제2투</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>동백1동제1투</t>
+          <t>동백동제2투</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>동백1동제1투</t>
+          <t>동백동제2투</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>동백1동제1투</t>
+          <t>동백동제2투</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>동백1동제2투</t>
+          <t>동백동제3투</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>동백1동제5투</t>
+          <t>동백동제6투</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>동백1동제2투</t>
+          <t>동백동제3투</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>동백1동제3투</t>
+          <t>동백동제4투</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>동백1동제3투</t>
+          <t>동백동제4투</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>동백1동제4투</t>
+          <t>동백동제5투</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>동백1동제4투</t>
+          <t>동백동제5투</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>동백1동제3투</t>
+          <t>동백동제4투</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>동백1동제6투</t>
+          <t>동백동제7투</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>동백1동제6투</t>
+          <t>동백동제7투</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>동백1동제6투</t>
+          <t>동백동제7투</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>동백1동제6투</t>
+          <t>동백동제7투</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>동백1동제5투</t>
+          <t>동백동제6투</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>동백2동제2투</t>
+          <t>동백동제12투</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>동백2동제2투</t>
+          <t>동백동제9투</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>동백2동제2투</t>
+          <t>동백동제13투</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>동백2동제2투</t>
+          <t>동백동제15투</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>동백2동제3투</t>
+          <t>동백동제14투</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>동백2동제3투</t>
+          <t>동백동제9투</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>동백2동제4투</t>
+          <t>동백동제9투</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>동백2동제5투</t>
+          <t>동백동제9투</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>동백2동제5투</t>
+          <t>동백동제10투</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>동백2동제5투</t>
+          <t>동백동제10투</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>동백2동제1투</t>
+          <t>동백동제12투</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>동백2동제1투</t>
+          <t>동백동제12투</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>동백2동제1투</t>
+          <t>동백동제12투</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>동백2동제2투</t>
+          <t>동백동제11투</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>동백2동제4투</t>
+          <t>동백동제13투</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
